--- a/PowerBI/sets_aggregation.xlsx
+++ b/PowerBI/sets_aggregation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tcarm\Documents\GitHub\PowerBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\ESM-Italy\PowerBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8EAAFC-2051-4806-A5EC-8CCD6EF8838B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F912AA-CBDC-4DD8-95F8-9CD3870F3BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="773" xr2:uid="{C1D74998-7012-43F2-A478-C4BFB8E0CB2D}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="773" activeTab="5" xr2:uid="{C1D74998-7012-43F2-A478-C4BFB8E0CB2D}"/>
   </bookViews>
   <sheets>
     <sheet name="SCENARIOS" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="esm_COST" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">esm_SECTORS!$A$1:$L$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">esm_SECTORS!$A$1:$N$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">esm_SECTORS_bkp!$A$1:$K$65</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="499">
   <si>
     <t>SCEN_ID</t>
   </si>
@@ -1463,6 +1463,87 @@
   </si>
   <si>
     <t>SCEN_ACRONYM_MAIN</t>
+  </si>
+  <si>
+    <t>SCEN_PAPER</t>
+  </si>
+  <si>
+    <t>STEPS</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Biofuels</t>
+  </si>
+  <si>
+    <t>Figure 1</t>
+  </si>
+  <si>
+    <t>FLOW_Figure 1</t>
+  </si>
+  <si>
+    <t>Blended gas (NG+H2)</t>
+  </si>
+  <si>
+    <t>Natural gas (NG)</t>
+  </si>
+  <si>
+    <t>Hydrogen (H2)</t>
+  </si>
+  <si>
+    <t>TECH_Figure 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fossil </t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>Battery storage</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>SCEN_NUC</t>
+  </si>
+  <si>
+    <t>10 y</t>
+  </si>
+  <si>
+    <t>13 y</t>
+  </si>
+  <si>
+    <t>17 y</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 y</t>
+  </si>
+  <si>
+    <t>SECTOR_Figure 7</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Energy Industry</t>
   </si>
 </sst>
 </file>
@@ -1846,22 +1927,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356700E5-0316-4B78-8F89-3633EA5D3EB4}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1872,10 +1954,16 @@
         <v>470</v>
       </c>
       <c r="D1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>438</v>
       </c>
@@ -1886,7 +1974,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>439</v>
       </c>
@@ -1896,11 +1984,14 @@
       <c r="C3" t="s">
         <v>432</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>440</v>
       </c>
@@ -1911,7 +2002,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>441</v>
       </c>
@@ -1922,7 +2013,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>442</v>
       </c>
@@ -1933,7 +2024,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>443</v>
       </c>
@@ -1944,10 +2035,16 @@
         <v>434</v>
       </c>
       <c r="D7" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>444</v>
       </c>
@@ -1957,8 +2054,11 @@
       <c r="C8" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>445</v>
       </c>
@@ -1968,8 +2068,11 @@
       <c r="C9" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>446</v>
       </c>
@@ -1979,8 +2082,11 @@
       <c r="C10" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>436</v>
       </c>
@@ -1990,11 +2096,14 @@
       <c r="C11" t="s">
         <v>433</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>447</v>
       </c>
@@ -2004,11 +2113,14 @@
       <c r="C12" t="s">
         <v>435</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>448</v>
       </c>
@@ -2019,7 +2131,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>449</v>
       </c>
@@ -2030,7 +2142,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>450</v>
       </c>
@@ -2041,7 +2153,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>396</v>
       </c>
@@ -2051,8 +2163,11 @@
       <c r="C16" t="s">
         <v>397</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>397</v>
+      </c>
+      <c r="F16" t="s">
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -2063,18 +2178,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856DD525-5DC6-4A6C-B2A4-04A7052DECD8}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G62" sqref="G62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.15234375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2090,8 +2206,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -2108,7 +2227,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1991</v>
       </c>
@@ -2125,7 +2244,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1992</v>
       </c>
@@ -2142,7 +2261,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1993</v>
       </c>
@@ -2159,7 +2278,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1994</v>
       </c>
@@ -2176,7 +2295,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1995</v>
       </c>
@@ -2193,7 +2312,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1996</v>
       </c>
@@ -2210,7 +2329,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1997</v>
       </c>
@@ -2227,7 +2346,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1998</v>
       </c>
@@ -2244,7 +2363,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1999</v>
       </c>
@@ -2261,7 +2380,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -2277,8 +2396,11 @@
       <c r="E12" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2001</v>
       </c>
@@ -2295,7 +2417,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -2312,7 +2434,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -2329,7 +2451,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -2346,7 +2468,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2005</v>
       </c>
@@ -2362,8 +2484,11 @@
       <c r="E17" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2006</v>
       </c>
@@ -2380,7 +2505,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2007</v>
       </c>
@@ -2397,7 +2522,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -2414,7 +2539,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2009</v>
       </c>
@@ -2431,7 +2556,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -2447,8 +2572,11 @@
       <c r="E22" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -2465,7 +2593,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -2482,7 +2610,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -2499,7 +2627,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>2014</v>
       </c>
@@ -2516,7 +2644,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -2532,8 +2660,11 @@
       <c r="E27" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -2550,7 +2681,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>2017</v>
       </c>
@@ -2567,7 +2698,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2584,7 +2715,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -2601,7 +2732,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -2617,8 +2748,11 @@
       <c r="E32" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -2635,7 +2769,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -2652,7 +2786,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>2023</v>
       </c>
@@ -2669,7 +2803,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>2024</v>
       </c>
@@ -2686,7 +2820,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>2025</v>
       </c>
@@ -2702,8 +2836,11 @@
       <c r="E37" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>2026</v>
       </c>
@@ -2720,7 +2857,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>2027</v>
       </c>
@@ -2737,7 +2874,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>2028</v>
       </c>
@@ -2754,7 +2891,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>2029</v>
       </c>
@@ -2771,7 +2908,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>2030</v>
       </c>
@@ -2787,8 +2924,11 @@
       <c r="E42" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>2031</v>
       </c>
@@ -2805,7 +2945,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>2032</v>
       </c>
@@ -2822,7 +2962,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>2033</v>
       </c>
@@ -2839,7 +2979,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>2034</v>
       </c>
@@ -2856,7 +2996,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>2035</v>
       </c>
@@ -2872,8 +3012,11 @@
       <c r="E47" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>2036</v>
       </c>
@@ -2890,7 +3033,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>2037</v>
       </c>
@@ -2907,7 +3050,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>2038</v>
       </c>
@@ -2924,7 +3067,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>2039</v>
       </c>
@@ -2941,7 +3084,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>2040</v>
       </c>
@@ -2957,8 +3100,11 @@
       <c r="E52" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>2041</v>
       </c>
@@ -2975,7 +3121,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>2042</v>
       </c>
@@ -2992,7 +3138,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>2043</v>
       </c>
@@ -3009,7 +3155,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>2044</v>
       </c>
@@ -3026,7 +3172,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>2045</v>
       </c>
@@ -3042,8 +3188,11 @@
       <c r="E57" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>2046</v>
       </c>
@@ -3060,7 +3209,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>2047</v>
       </c>
@@ -3077,7 +3226,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>2048</v>
       </c>
@@ -3094,7 +3243,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>2049</v>
       </c>
@@ -3111,7 +3260,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>2050</v>
       </c>
@@ -3127,8 +3276,11 @@
       <c r="E62" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>2051</v>
       </c>
@@ -3145,7 +3297,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>2052</v>
       </c>
@@ -3162,7 +3314,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>2053</v>
       </c>
@@ -3179,7 +3331,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>2054</v>
       </c>
@@ -3196,7 +3348,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>2055</v>
       </c>
@@ -3213,7 +3365,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>2056</v>
       </c>
@@ -3230,7 +3382,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>2057</v>
       </c>
@@ -3247,7 +3399,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>2058</v>
       </c>
@@ -3264,7 +3416,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>2059</v>
       </c>
@@ -3281,7 +3433,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>2060</v>
       </c>
@@ -3298,7 +3450,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>2061</v>
       </c>
@@ -3315,7 +3467,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>2062</v>
       </c>
@@ -3332,7 +3484,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>2063</v>
       </c>
@@ -3349,7 +3501,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>2064</v>
       </c>
@@ -3366,7 +3518,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>2065</v>
       </c>
@@ -3383,7 +3535,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>2066</v>
       </c>
@@ -3400,7 +3552,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>2067</v>
       </c>
@@ -3417,7 +3569,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>2068</v>
       </c>
@@ -3434,7 +3586,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>2069</v>
       </c>
@@ -3451,7 +3603,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>2070</v>
       </c>
@@ -3480,12 +3632,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>374</v>
       </c>
@@ -3493,7 +3645,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3501,7 +3653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3509,7 +3661,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3517,7 +3669,7 @@
         <v>8.3333333333333301E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3525,7 +3677,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3533,7 +3685,7 @@
         <v>0.16666666666666699</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3541,7 +3693,7 @@
         <v>0.20833333333333301</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3549,7 +3701,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3557,7 +3709,7 @@
         <v>0.29166666666666702</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3565,7 +3717,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3573,7 +3725,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3581,7 +3733,7 @@
         <v>0.41666666666666702</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3589,7 +3741,7 @@
         <v>0.45833333333333298</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3597,7 +3749,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3605,7 +3757,7 @@
         <v>0.54166666666666696</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3613,7 +3765,7 @@
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3621,7 +3773,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3629,7 +3781,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3637,7 +3789,7 @@
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3645,7 +3797,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3653,7 +3805,7 @@
         <v>0.79166666666666696</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3661,7 +3813,7 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3669,7 +3821,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3677,7 +3829,7 @@
         <v>0.91666666666666696</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3699,15 +3851,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.3046875" customWidth="1"/>
+    <col min="2" max="3" width="17.3046875" customWidth="1"/>
+    <col min="4" max="4" width="16.53515625" customWidth="1"/>
+    <col min="5" max="5" width="18.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3724,7 +3876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3755,20 +3907,20 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.21875" customWidth="1"/>
-    <col min="8" max="9" width="28.21875" customWidth="1"/>
-    <col min="10" max="11" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.3046875" customWidth="1"/>
+    <col min="4" max="4" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.3046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.3046875" customWidth="1"/>
+    <col min="8" max="9" width="28.3046875" customWidth="1"/>
+    <col min="10" max="11" width="16.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3803,7 +3955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -3838,7 +3990,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -3873,7 +4025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -3908,7 +4060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -3943,7 +4095,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -3978,7 +4130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -4013,7 +4165,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -4048,7 +4200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -4083,7 +4235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -4118,7 +4270,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -4153,7 +4305,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -4188,7 +4340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -4223,7 +4375,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -4258,7 +4410,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -4293,7 +4445,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -4328,7 +4480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -4363,7 +4515,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -4398,7 +4550,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -4433,7 +4585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -4468,7 +4620,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -4503,7 +4655,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
@@ -4538,7 +4690,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -4573,7 +4725,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -4608,7 +4760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>104</v>
       </c>
@@ -4643,7 +4795,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -4678,7 +4830,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
@@ -4713,7 +4865,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
@@ -4748,7 +4900,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -4783,7 +4935,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>118</v>
       </c>
@@ -4818,7 +4970,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>128</v>
       </c>
@@ -4853,7 +5005,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>133</v>
       </c>
@@ -4888,7 +5040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>133</v>
       </c>
@@ -4923,7 +5075,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>141</v>
       </c>
@@ -4958,7 +5110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
@@ -4993,7 +5145,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>149</v>
       </c>
@@ -5028,7 +5180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>154</v>
       </c>
@@ -5063,7 +5215,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>154</v>
       </c>
@@ -5098,7 +5250,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>162</v>
       </c>
@@ -5133,7 +5285,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>162</v>
       </c>
@@ -5168,7 +5320,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>168</v>
       </c>
@@ -5203,7 +5355,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>171</v>
       </c>
@@ -5238,7 +5390,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>176</v>
       </c>
@@ -5273,7 +5425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>179</v>
       </c>
@@ -5308,7 +5460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>182</v>
       </c>
@@ -5343,7 +5495,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>185</v>
       </c>
@@ -5378,7 +5530,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>188</v>
       </c>
@@ -5413,7 +5565,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>192</v>
       </c>
@@ -5448,7 +5600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>195</v>
       </c>
@@ -5483,7 +5635,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
@@ -5518,7 +5670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>202</v>
       </c>
@@ -5553,7 +5705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>205</v>
       </c>
@@ -5588,7 +5740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>208</v>
       </c>
@@ -5623,7 +5775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>211</v>
       </c>
@@ -5658,7 +5810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>214</v>
       </c>
@@ -5693,7 +5845,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>217</v>
       </c>
@@ -5728,7 +5880,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>220</v>
       </c>
@@ -5763,7 +5915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>223</v>
       </c>
@@ -5798,7 +5950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>227</v>
       </c>
@@ -5833,7 +5985,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>230</v>
       </c>
@@ -5868,7 +6020,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>233</v>
       </c>
@@ -5903,7 +6055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>236</v>
       </c>
@@ -5938,7 +6090,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>239</v>
       </c>
@@ -5973,7 +6125,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>242</v>
       </c>
@@ -6008,7 +6160,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>246</v>
       </c>
@@ -6051,27 +6203,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A06624A-00EE-47AC-8E7E-F3D2C440B774}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F9" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.21875" customWidth="1"/>
-    <col min="9" max="10" width="28.21875" customWidth="1"/>
-    <col min="11" max="12" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.3046875" customWidth="1"/>
+    <col min="4" max="4" width="18.3046875" customWidth="1"/>
+    <col min="5" max="5" width="18.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.3046875" customWidth="1"/>
+    <col min="7" max="7" width="25.3046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.3046875" customWidth="1"/>
+    <col min="10" max="12" width="28.3046875" customWidth="1"/>
+    <col min="13" max="14" width="16.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -6088,28 +6241,34 @@
         <v>249</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -6126,28 +6285,34 @@
         <v>35</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -6164,28 +6329,32 @@
         <v>35</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
@@ -6202,28 +6371,32 @@
         <v>35</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
@@ -6240,28 +6413,32 @@
         <v>35</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>379</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>380</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>380</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>57</v>
+        <v>380</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>317</v>
       </c>
@@ -6278,28 +6455,32 @@
         <v>35</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>51</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>318</v>
       </c>
@@ -6316,28 +6497,32 @@
         <v>35</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>334</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>59</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="5"/>
+      <c r="M7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -6354,28 +6539,32 @@
         <v>35</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>335</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>316</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>316</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>57</v>
+        <v>316</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="5"/>
+      <c r="M8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>376</v>
       </c>
@@ -6392,28 +6581,32 @@
         <v>35</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>326</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>326</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>49</v>
+        <v>326</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>67</v>
       </c>
@@ -6430,28 +6623,34 @@
         <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>346</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>419</v>
+        <v>346</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="K10" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -6468,28 +6667,34 @@
         <v>35</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>347</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>419</v>
+        <v>347</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="K11" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" t="s">
+      <c r="K11" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="M11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -6506,28 +6711,34 @@
         <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>348</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>419</v>
+        <v>348</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="K12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="K12" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="M12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -6544,28 +6755,34 @@
         <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K13" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="K13" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="M13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -6582,28 +6799,34 @@
         <v>35</v>
       </c>
       <c r="F14" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>350</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>421</v>
+        <v>350</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="K14" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="K14" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="M14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -6620,28 +6843,34 @@
         <v>35</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>351</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="K15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" t="s">
+      <c r="L15" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M15" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -6658,28 +6887,34 @@
         <v>35</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>372</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>405</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>423</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="K16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" t="s">
+      <c r="L16" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -6696,28 +6931,34 @@
         <v>35</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>373</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>406</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>424</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="K17" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" t="s">
+      <c r="L17" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="M17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -6734,28 +6975,34 @@
         <v>35</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>352</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="K18" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="L18" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+      <c r="N18" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -6772,28 +7019,34 @@
         <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>353</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="K19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="L19" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+      <c r="N19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -6810,28 +7063,34 @@
         <v>35</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>354</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="K20" t="s">
-        <v>38</v>
-      </c>
-      <c r="L20" t="s">
+      <c r="L20" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -6848,28 +7107,34 @@
         <v>35</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>420</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K21" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="K21" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
@@ -6885,29 +7150,35 @@
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G22" t="s">
         <v>337</v>
-      </c>
-      <c r="G22" t="s">
-        <v>355</v>
       </c>
       <c r="H22" t="s">
         <v>355</v>
       </c>
       <c r="I22" t="s">
-        <v>426</v>
+        <v>355</v>
       </c>
       <c r="J22" t="s">
         <v>426</v>
       </c>
       <c r="K22" t="s">
-        <v>38</v>
-      </c>
-      <c r="L22" t="s">
+        <v>426</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="M22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
         <v>100</v>
       </c>
@@ -6923,29 +7194,33 @@
       <c r="E23" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>103</v>
+      <c r="I23" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K23" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
         <v>128</v>
       </c>
@@ -6961,29 +7236,35 @@
       <c r="E24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>132</v>
+      <c r="I24" s="6" t="s">
+        <v>356</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="K24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>149</v>
       </c>
@@ -6999,29 +7280,33 @@
       <c r="E25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G25" t="s">
         <v>151</v>
-      </c>
-      <c r="G25" t="s">
-        <v>377</v>
       </c>
       <c r="H25" t="s">
         <v>377</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
+        <v>377</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="K25" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="L25" s="1"/>
+      <c r="M25" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
         <v>154</v>
       </c>
@@ -7037,29 +7322,33 @@
       <c r="E26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="6"/>
+      <c r="M26" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N26" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A27" s="5" t="s">
         <v>154</v>
       </c>
@@ -7075,29 +7364,33 @@
       <c r="E27" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="K27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="6"/>
+      <c r="M27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>162</v>
       </c>
@@ -7113,29 +7406,32 @@
       <c r="E28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G28" t="s">
         <v>164</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>165</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>430</v>
-      </c>
-      <c r="I28" t="s">
-        <v>158</v>
       </c>
       <c r="J28" t="s">
         <v>158</v>
       </c>
       <c r="K28" t="s">
-        <v>38</v>
-      </c>
-      <c r="L28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="M28" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>162</v>
       </c>
@@ -7151,29 +7447,32 @@
       <c r="E29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G29" t="s">
         <v>399</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>400</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>430</v>
-      </c>
-      <c r="I29" t="s">
-        <v>158</v>
       </c>
       <c r="J29" t="s">
         <v>158</v>
       </c>
       <c r="K29" t="s">
-        <v>38</v>
-      </c>
-      <c r="L29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="M29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>162</v>
       </c>
@@ -7189,29 +7488,32 @@
       <c r="E30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G30" t="s">
         <v>166</v>
-      </c>
-      <c r="G30" t="s">
-        <v>383</v>
       </c>
       <c r="H30" t="s">
         <v>383</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>383</v>
       </c>
       <c r="J30" t="s">
         <v>158</v>
       </c>
       <c r="K30" t="s">
-        <v>38</v>
-      </c>
-      <c r="L30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="M30" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A31" s="5" t="s">
         <v>391</v>
       </c>
@@ -7227,11 +7529,11 @@
       <c r="E31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="H31" s="6" t="s">
         <v>392</v>
@@ -7243,13 +7545,17 @@
         <v>392</v>
       </c>
       <c r="K31" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="N31" s="6" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>319</v>
       </c>
@@ -7265,11 +7571,11 @@
       <c r="E32" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G32" t="s">
         <v>338</v>
-      </c>
-      <c r="G32" t="s">
-        <v>173</v>
       </c>
       <c r="H32" t="s">
         <v>173</v>
@@ -7281,13 +7587,16 @@
         <v>173</v>
       </c>
       <c r="K32" t="s">
-        <v>39</v>
-      </c>
-      <c r="L32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="M32" t="s">
+        <v>39</v>
+      </c>
+      <c r="N32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
@@ -7303,11 +7612,11 @@
       <c r="E33" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G33" t="s">
         <v>339</v>
-      </c>
-      <c r="G33" t="s">
-        <v>327</v>
       </c>
       <c r="H33" t="s">
         <v>327</v>
@@ -7319,13 +7628,16 @@
         <v>327</v>
       </c>
       <c r="K33" t="s">
-        <v>39</v>
-      </c>
-      <c r="L33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="M33" t="s">
+        <v>39</v>
+      </c>
+      <c r="N33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>320</v>
       </c>
@@ -7341,11 +7653,11 @@
       <c r="E34" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G34" t="s">
         <v>340</v>
-      </c>
-      <c r="G34" t="s">
-        <v>120</v>
       </c>
       <c r="H34" t="s">
         <v>120</v>
@@ -7357,13 +7669,16 @@
         <v>120</v>
       </c>
       <c r="K34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="M34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>321</v>
       </c>
@@ -7380,10 +7695,10 @@
         <v>174</v>
       </c>
       <c r="F35" t="s">
+        <v>497</v>
+      </c>
+      <c r="G35" t="s">
         <v>341</v>
-      </c>
-      <c r="G35" t="s">
-        <v>328</v>
       </c>
       <c r="H35" t="s">
         <v>328</v>
@@ -7395,13 +7710,16 @@
         <v>328</v>
       </c>
       <c r="K35" t="s">
-        <v>39</v>
-      </c>
-      <c r="L35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+      <c r="M35" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>322</v>
       </c>
@@ -7418,10 +7736,10 @@
         <v>174</v>
       </c>
       <c r="F36" t="s">
+        <v>497</v>
+      </c>
+      <c r="G36" t="s">
         <v>342</v>
-      </c>
-      <c r="G36" t="s">
-        <v>329</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -7433,13 +7751,16 @@
         <v>329</v>
       </c>
       <c r="K36" t="s">
-        <v>39</v>
-      </c>
-      <c r="L36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+      <c r="M36" t="s">
+        <v>39</v>
+      </c>
+      <c r="N36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>323</v>
       </c>
@@ -7456,10 +7777,10 @@
         <v>174</v>
       </c>
       <c r="F37" t="s">
+        <v>497</v>
+      </c>
+      <c r="G37" t="s">
         <v>343</v>
-      </c>
-      <c r="G37" t="s">
-        <v>330</v>
       </c>
       <c r="H37" t="s">
         <v>330</v>
@@ -7471,13 +7792,16 @@
         <v>330</v>
       </c>
       <c r="K37" t="s">
-        <v>39</v>
-      </c>
-      <c r="L37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+      <c r="M37" t="s">
+        <v>39</v>
+      </c>
+      <c r="N37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>324</v>
       </c>
@@ -7494,10 +7818,10 @@
         <v>174</v>
       </c>
       <c r="F38" t="s">
+        <v>497</v>
+      </c>
+      <c r="G38" t="s">
         <v>344</v>
-      </c>
-      <c r="G38" t="s">
-        <v>331</v>
       </c>
       <c r="H38" t="s">
         <v>331</v>
@@ -7509,13 +7833,16 @@
         <v>331</v>
       </c>
       <c r="K38" t="s">
-        <v>39</v>
-      </c>
-      <c r="L38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+      <c r="M38" t="s">
+        <v>39</v>
+      </c>
+      <c r="N38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>325</v>
       </c>
@@ -7531,11 +7858,8 @@
       <c r="E39" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>345</v>
-      </c>
-      <c r="G39" t="s">
-        <v>332</v>
       </c>
       <c r="H39" t="s">
         <v>332</v>
@@ -7547,14 +7871,17 @@
         <v>332</v>
       </c>
       <c r="K39" t="s">
-        <v>39</v>
-      </c>
-      <c r="L39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" t="s">
+        <v>39</v>
+      </c>
+      <c r="N39" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L21" xr:uid="{2A06624A-00EE-47AC-8E7E-F3D2C440B774}"/>
+  <autoFilter ref="A1:N21" xr:uid="{2A06624A-00EE-47AC-8E7E-F3D2C440B774}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7562,25 +7889,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="24.21875" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" customWidth="1"/>
-    <col min="8" max="8" width="21.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="24.3046875" customWidth="1"/>
+    <col min="8" max="8" width="18.3046875" customWidth="1"/>
+    <col min="9" max="9" width="21.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>251</v>
       </c>
@@ -7600,13 +7927,16 @@
         <v>256</v>
       </c>
       <c r="G1" t="s">
+        <v>479</v>
+      </c>
+      <c r="H1" t="s">
         <v>257</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -7626,13 +7956,16 @@
         <v>261</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>474</v>
       </c>
       <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>264</v>
       </c>
@@ -7652,13 +7985,16 @@
         <v>265</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>266</v>
       </c>
@@ -7678,13 +8014,16 @@
         <v>369</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>481</v>
       </c>
       <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>268</v>
       </c>
@@ -7704,13 +8043,16 @@
         <v>368</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>477</v>
       </c>
       <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>270</v>
       </c>
@@ -7730,13 +8072,16 @@
         <v>261</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>474</v>
       </c>
       <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>272</v>
       </c>
@@ -7756,13 +8101,16 @@
         <v>265</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>475</v>
       </c>
       <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>357</v>
       </c>
@@ -7782,13 +8130,16 @@
         <v>368</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>477</v>
       </c>
       <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>384</v>
       </c>
@@ -7808,13 +8159,16 @@
         <v>389</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>421</v>
       </c>
       <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>366</v>
       </c>
@@ -7834,13 +8188,16 @@
         <v>367</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>476</v>
       </c>
       <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>386</v>
       </c>
@@ -7860,13 +8217,16 @@
         <v>381</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>482</v>
       </c>
       <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>387</v>
       </c>
@@ -7886,13 +8246,16 @@
         <v>390</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>480</v>
       </c>
       <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>401</v>
       </c>
@@ -7911,14 +8274,14 @@
       <c r="F13" t="s">
         <v>402</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>124</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>275</v>
       </c>
@@ -7937,14 +8300,14 @@
       <c r="F14" t="s">
         <v>260</v>
       </c>
-      <c r="G14" t="s">
-        <v>38</v>
-      </c>
       <c r="H14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>277</v>
       </c>
@@ -7963,14 +8326,14 @@
       <c r="F15" t="s">
         <v>278</v>
       </c>
-      <c r="G15" t="s">
-        <v>38</v>
-      </c>
       <c r="H15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>279</v>
       </c>
@@ -7989,14 +8352,14 @@
       <c r="F16" t="s">
         <v>267</v>
       </c>
-      <c r="G16" t="s">
-        <v>38</v>
-      </c>
       <c r="H16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -8015,14 +8378,14 @@
       <c r="F17" t="s">
         <v>362</v>
       </c>
-      <c r="G17" t="s">
-        <v>38</v>
-      </c>
       <c r="H17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>359</v>
       </c>
@@ -8041,14 +8404,14 @@
       <c r="F18" t="s">
         <v>363</v>
       </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
       <c r="H18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>280</v>
       </c>
@@ -8067,14 +8430,14 @@
       <c r="F19" t="s">
         <v>281</v>
       </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
       <c r="H19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>282</v>
       </c>
@@ -8093,14 +8456,14 @@
       <c r="F20" t="s">
         <v>284</v>
       </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
       <c r="H20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>285</v>
       </c>
@@ -8119,14 +8482,14 @@
       <c r="F21" t="s">
         <v>284</v>
       </c>
-      <c r="G21" t="s">
-        <v>38</v>
-      </c>
       <c r="H21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>286</v>
       </c>
@@ -8145,14 +8508,14 @@
       <c r="F22" t="s">
         <v>284</v>
       </c>
-      <c r="G22" t="s">
-        <v>38</v>
-      </c>
       <c r="H22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>288</v>
       </c>
@@ -8171,14 +8534,14 @@
       <c r="F23" t="s">
         <v>290</v>
       </c>
-      <c r="G23" t="s">
-        <v>38</v>
-      </c>
       <c r="H23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>291</v>
       </c>
@@ -8197,14 +8560,14 @@
       <c r="F24" t="s">
         <v>290</v>
       </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
       <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>293</v>
       </c>
@@ -8223,14 +8586,14 @@
       <c r="F25" t="s">
         <v>295</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>296</v>
       </c>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>297</v>
       </c>
@@ -8249,10 +8612,10 @@
       <c r="F26" t="s">
         <v>295</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>299</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8271,13 +8634,13 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="23.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.3828125" customWidth="1"/>
+    <col min="3" max="3" width="14.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>300</v>
       </c>
@@ -8288,7 +8651,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>303</v>
       </c>
@@ -8299,7 +8662,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>306</v>
       </c>
@@ -8310,7 +8673,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>309</v>
       </c>
@@ -8321,7 +8684,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>403</v>
       </c>
@@ -8332,7 +8695,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>311</v>
       </c>
@@ -8343,7 +8706,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>297</v>
       </c>
@@ -8354,7 +8717,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>293</v>
       </c>

--- a/PowerBI/sets_aggregation.xlsx
+++ b/PowerBI/sets_aggregation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\ESM-Italy\PowerBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F912AA-CBDC-4DD8-95F8-9CD3870F3BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC456DC-798C-439C-8181-3CFF3A983CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="773" activeTab="5" xr2:uid="{C1D74998-7012-43F2-A478-C4BFB8E0CB2D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="773" activeTab="7" xr2:uid="{C1D74998-7012-43F2-A478-C4BFB8E0CB2D}"/>
   </bookViews>
   <sheets>
     <sheet name="SCENARIOS" sheetId="8" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="esm_COST" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">esm_SECTORS!$A$1:$N$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">esm_SECTORS!$A$1:$Q$39</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">esm_SECTORS_bkp!$A$1:$K$65</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -46,8 +46,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1888" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="517">
   <si>
     <t>SCEN_ID</t>
   </si>
@@ -1544,6 +1566,60 @@
   </si>
   <si>
     <t>Energy Industry</t>
+  </si>
+  <si>
+    <t>TECH_Figure 4</t>
+  </si>
+  <si>
+    <t>FIGURE4</t>
+  </si>
+  <si>
+    <t>Figure 4</t>
+  </si>
+  <si>
+    <t>Electrolyzers</t>
+  </si>
+  <si>
+    <t>Decades</t>
+  </si>
+  <si>
+    <t>90-00</t>
+  </si>
+  <si>
+    <t>00-10</t>
+  </si>
+  <si>
+    <t>10-20</t>
+  </si>
+  <si>
+    <t>30-40</t>
+  </si>
+  <si>
+    <t>40-50</t>
+  </si>
+  <si>
+    <t>50-60</t>
+  </si>
+  <si>
+    <t>60-70</t>
+  </si>
+  <si>
+    <t>TECH_Figure 8</t>
+  </si>
+  <si>
+    <t>20-22</t>
+  </si>
+  <si>
+    <t>23-30</t>
+  </si>
+  <si>
+    <t>COST_2</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
+    <t>Operation</t>
   </si>
 </sst>
 </file>
@@ -1605,7 +1681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1613,6 +1689,7 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1933,17 +2010,17 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.84375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.69140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1963,7 +2040,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>438</v>
       </c>
@@ -1974,7 +2051,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>439</v>
       </c>
@@ -1991,7 +2068,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>440</v>
       </c>
@@ -2002,7 +2079,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>441</v>
       </c>
@@ -2013,7 +2090,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>442</v>
       </c>
@@ -2024,7 +2101,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>443</v>
       </c>
@@ -2044,7 +2121,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>444</v>
       </c>
@@ -2058,7 +2135,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>445</v>
       </c>
@@ -2072,7 +2149,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>446</v>
       </c>
@@ -2086,7 +2163,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>436</v>
       </c>
@@ -2103,7 +2180,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>447</v>
       </c>
@@ -2120,7 +2197,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>448</v>
       </c>
@@ -2131,7 +2208,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>449</v>
       </c>
@@ -2142,7 +2219,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>450</v>
       </c>
@@ -2153,7 +2230,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>396</v>
       </c>
@@ -2178,19 +2255,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856DD525-5DC6-4A6C-B2A4-04A7052DECD8}">
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35:F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2207,10 +2284,13 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>503</v>
+      </c>
+      <c r="G1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1990</v>
       </c>
@@ -2226,8 +2306,11 @@
       <c r="E2" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1991</v>
       </c>
@@ -2243,8 +2326,11 @@
       <c r="E3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1992</v>
       </c>
@@ -2260,8 +2346,11 @@
       <c r="E4" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1993</v>
       </c>
@@ -2277,8 +2366,11 @@
       <c r="E5" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1994</v>
       </c>
@@ -2294,8 +2386,11 @@
       <c r="E6" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1995</v>
       </c>
@@ -2311,8 +2406,11 @@
       <c r="E7" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1996</v>
       </c>
@@ -2328,8 +2426,11 @@
       <c r="E8" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1997</v>
       </c>
@@ -2345,8 +2446,11 @@
       <c r="E9" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1998</v>
       </c>
@@ -2362,8 +2466,11 @@
       <c r="E10" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1999</v>
       </c>
@@ -2379,8 +2486,11 @@
       <c r="E11" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -2396,11 +2506,14 @@
       <c r="E12" t="s">
         <v>407</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>504</v>
+      </c>
+      <c r="G12">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2001</v>
       </c>
@@ -2416,8 +2529,11 @@
       <c r="E13" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F13" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2002</v>
       </c>
@@ -2433,8 +2549,11 @@
       <c r="E14" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -2450,8 +2569,11 @@
       <c r="E15" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2004</v>
       </c>
@@ -2467,8 +2589,11 @@
       <c r="E16" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F16" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2005</v>
       </c>
@@ -2484,11 +2609,14 @@
       <c r="E17" t="s">
         <v>407</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>505</v>
+      </c>
+      <c r="G17">
         <v>2005</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2006</v>
       </c>
@@ -2504,8 +2632,11 @@
       <c r="E18" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2007</v>
       </c>
@@ -2521,8 +2652,11 @@
       <c r="E19" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -2538,8 +2672,11 @@
       <c r="E20" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F20" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2009</v>
       </c>
@@ -2555,8 +2692,11 @@
       <c r="E21" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F21" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2010</v>
       </c>
@@ -2572,11 +2712,14 @@
       <c r="E22" t="s">
         <v>407</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="s">
+        <v>505</v>
+      </c>
+      <c r="G22">
         <v>2010</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2011</v>
       </c>
@@ -2592,8 +2735,11 @@
       <c r="E23" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F23" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2012</v>
       </c>
@@ -2609,8 +2755,11 @@
       <c r="E24" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F24" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="E25" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F25" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2014</v>
       </c>
@@ -2643,8 +2795,11 @@
       <c r="E26" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F26" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2015</v>
       </c>
@@ -2660,11 +2815,14 @@
       <c r="E27" t="s">
         <v>407</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G27">
         <v>2015</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2016</v>
       </c>
@@ -2680,8 +2838,11 @@
       <c r="E28" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F28" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2017</v>
       </c>
@@ -2697,8 +2858,11 @@
       <c r="E29" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F29" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2018</v>
       </c>
@@ -2714,8 +2878,11 @@
       <c r="E30" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F30" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -2731,8 +2898,11 @@
       <c r="E31" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F31" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2020</v>
       </c>
@@ -2748,11 +2918,14 @@
       <c r="E32" t="s">
         <v>407</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G32">
         <v>2020</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -2768,8 +2941,11 @@
       <c r="E33" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F33" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -2785,8 +2961,11 @@
       <c r="E34" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F34" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2023</v>
       </c>
@@ -2802,8 +2981,11 @@
       <c r="E35" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F35" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2024</v>
       </c>
@@ -2819,8 +3001,11 @@
       <c r="E36" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F36" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2025</v>
       </c>
@@ -2836,11 +3021,14 @@
       <c r="E37" t="s">
         <v>408</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G37">
         <v>2025</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2026</v>
       </c>
@@ -2856,8 +3044,11 @@
       <c r="E38" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F38" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2027</v>
       </c>
@@ -2873,8 +3064,11 @@
       <c r="E39" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F39" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2028</v>
       </c>
@@ -2890,8 +3084,11 @@
       <c r="E40" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F40" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2029</v>
       </c>
@@ -2907,8 +3104,11 @@
       <c r="E41" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F41" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2030</v>
       </c>
@@ -2924,11 +3124,14 @@
       <c r="E42" t="s">
         <v>408</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="G42">
         <v>2030</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2031</v>
       </c>
@@ -2944,8 +3147,11 @@
       <c r="E43" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F43" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2032</v>
       </c>
@@ -2961,8 +3167,11 @@
       <c r="E44" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F44" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2033</v>
       </c>
@@ -2978,8 +3187,11 @@
       <c r="E45" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F45" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2034</v>
       </c>
@@ -2995,8 +3207,11 @@
       <c r="E46" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F46" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2035</v>
       </c>
@@ -3012,11 +3227,14 @@
       <c r="E47" t="s">
         <v>408</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G47">
         <v>2035</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2036</v>
       </c>
@@ -3032,8 +3250,11 @@
       <c r="E48" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F48" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2037</v>
       </c>
@@ -3049,8 +3270,11 @@
       <c r="E49" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F49" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2038</v>
       </c>
@@ -3066,8 +3290,11 @@
       <c r="E50" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F50" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2039</v>
       </c>
@@ -3083,8 +3310,11 @@
       <c r="E51" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F51" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2040</v>
       </c>
@@ -3100,11 +3330,14 @@
       <c r="E52" t="s">
         <v>408</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="G52">
         <v>2040</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2041</v>
       </c>
@@ -3120,8 +3353,11 @@
       <c r="E53" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F53" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2042</v>
       </c>
@@ -3137,8 +3373,11 @@
       <c r="E54" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F54" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2043</v>
       </c>
@@ -3154,8 +3393,11 @@
       <c r="E55" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F55" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2044</v>
       </c>
@@ -3171,8 +3413,11 @@
       <c r="E56" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F56" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2045</v>
       </c>
@@ -3188,11 +3433,14 @@
       <c r="E57" t="s">
         <v>408</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G57">
         <v>2045</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2046</v>
       </c>
@@ -3208,8 +3456,11 @@
       <c r="E58" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F58" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2047</v>
       </c>
@@ -3225,8 +3476,11 @@
       <c r="E59" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F59" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2048</v>
       </c>
@@ -3242,8 +3496,11 @@
       <c r="E60" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F60" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2049</v>
       </c>
@@ -3259,8 +3516,11 @@
       <c r="E61" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F61" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2050</v>
       </c>
@@ -3276,11 +3536,14 @@
       <c r="E62" t="s">
         <v>408</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="G62">
         <v>2050</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2051</v>
       </c>
@@ -3296,8 +3559,11 @@
       <c r="E63" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F63" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2052</v>
       </c>
@@ -3313,8 +3579,11 @@
       <c r="E64" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F64" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2053</v>
       </c>
@@ -3330,8 +3599,11 @@
       <c r="E65" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F65" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2054</v>
       </c>
@@ -3347,8 +3619,11 @@
       <c r="E66" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F66" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2055</v>
       </c>
@@ -3364,8 +3639,11 @@
       <c r="E67" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F67" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2056</v>
       </c>
@@ -3381,8 +3659,11 @@
       <c r="E68" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F68" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2057</v>
       </c>
@@ -3398,8 +3679,11 @@
       <c r="E69" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F69" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2058</v>
       </c>
@@ -3415,8 +3699,11 @@
       <c r="E70" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F70" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2059</v>
       </c>
@@ -3432,8 +3719,11 @@
       <c r="E71" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F71" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2060</v>
       </c>
@@ -3449,8 +3739,11 @@
       <c r="E72" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F72" s="7" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2061</v>
       </c>
@@ -3466,8 +3759,11 @@
       <c r="E73" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F73" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2062</v>
       </c>
@@ -3483,8 +3779,11 @@
       <c r="E74" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F74" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2063</v>
       </c>
@@ -3500,8 +3799,11 @@
       <c r="E75" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F75" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2064</v>
       </c>
@@ -3517,8 +3819,11 @@
       <c r="E76" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F76" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2065</v>
       </c>
@@ -3534,8 +3839,11 @@
       <c r="E77" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F77" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2066</v>
       </c>
@@ -3551,8 +3859,11 @@
       <c r="E78" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F78" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2067</v>
       </c>
@@ -3568,8 +3879,11 @@
       <c r="E79" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F79" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2068</v>
       </c>
@@ -3585,8 +3899,11 @@
       <c r="E80" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F80" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2069</v>
       </c>
@@ -3602,8 +3919,11 @@
       <c r="E81" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F81" s="7" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2070</v>
       </c>
@@ -3618,6 +3938,9 @@
       </c>
       <c r="E82" t="s">
         <v>365</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -3632,12 +3955,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>374</v>
       </c>
@@ -3645,7 +3968,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3653,7 +3976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3661,7 +3984,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3669,7 +3992,7 @@
         <v>8.3333333333333301E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3677,7 +4000,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3685,7 +4008,7 @@
         <v>0.16666666666666699</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3693,7 +4016,7 @@
         <v>0.20833333333333301</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3701,7 +4024,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3709,7 +4032,7 @@
         <v>0.29166666666666702</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3717,7 +4040,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3725,7 +4048,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3733,7 +4056,7 @@
         <v>0.41666666666666702</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3741,7 +4064,7 @@
         <v>0.45833333333333298</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3749,7 +4072,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3757,7 +4080,7 @@
         <v>0.54166666666666696</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3765,7 +4088,7 @@
         <v>0.58333333333333304</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3773,7 +4096,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3781,7 +4104,7 @@
         <v>0.66666666666666696</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3789,7 +4112,7 @@
         <v>0.70833333333333304</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3797,7 +4120,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3805,7 +4128,7 @@
         <v>0.79166666666666696</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3813,7 +4136,7 @@
         <v>0.83333333333333304</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3821,7 +4144,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3829,7 +4152,7 @@
         <v>0.91666666666666696</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3851,15 +4174,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.3046875" customWidth="1"/>
-    <col min="2" max="3" width="17.3046875" customWidth="1"/>
-    <col min="4" max="4" width="16.53515625" customWidth="1"/>
-    <col min="5" max="5" width="18.53515625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3876,7 +4199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3907,20 +4230,20 @@
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.3046875" customWidth="1"/>
-    <col min="4" max="4" width="18.3046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.3046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.3046875" customWidth="1"/>
-    <col min="8" max="9" width="28.3046875" customWidth="1"/>
-    <col min="10" max="11" width="16.3046875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" customWidth="1"/>
+    <col min="8" max="9" width="28.28515625" customWidth="1"/>
+    <col min="10" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -3955,7 +4278,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -3990,7 +4313,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -4025,7 +4348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>43</v>
       </c>
@@ -4060,7 +4383,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -4095,7 +4418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -4130,7 +4453,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -4165,7 +4488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -4200,7 +4523,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>61</v>
       </c>
@@ -4235,7 +4558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -4270,7 +4593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>67</v>
       </c>
@@ -4305,7 +4628,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -4340,7 +4663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
@@ -4375,7 +4698,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -4410,7 +4733,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -4445,7 +4768,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -4480,7 +4803,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -4515,7 +4838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -4550,7 +4873,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -4585,7 +4908,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -4620,7 +4943,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -4655,7 +4978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>67</v>
       </c>
@@ -4690,7 +5013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
@@ -4725,7 +5048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -4760,7 +5083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>104</v>
       </c>
@@ -4795,7 +5118,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>104</v>
       </c>
@@ -4830,7 +5153,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
@@ -4865,7 +5188,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>104</v>
       </c>
@@ -4900,7 +5223,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>118</v>
       </c>
@@ -4935,7 +5258,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>118</v>
       </c>
@@ -4970,7 +5293,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>128</v>
       </c>
@@ -5005,7 +5328,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>133</v>
       </c>
@@ -5040,7 +5363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>133</v>
       </c>
@@ -5075,7 +5398,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>141</v>
       </c>
@@ -5110,7 +5433,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>141</v>
       </c>
@@ -5145,7 +5468,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>149</v>
       </c>
@@ -5180,7 +5503,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>154</v>
       </c>
@@ -5215,7 +5538,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>154</v>
       </c>
@@ -5250,7 +5573,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>162</v>
       </c>
@@ -5285,7 +5608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>162</v>
       </c>
@@ -5320,7 +5643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>168</v>
       </c>
@@ -5355,7 +5678,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>171</v>
       </c>
@@ -5390,7 +5713,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>176</v>
       </c>
@@ -5425,7 +5748,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>179</v>
       </c>
@@ -5460,7 +5783,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>182</v>
       </c>
@@ -5495,7 +5818,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>185</v>
       </c>
@@ -5530,7 +5853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>188</v>
       </c>
@@ -5565,7 +5888,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>192</v>
       </c>
@@ -5600,7 +5923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>195</v>
       </c>
@@ -5635,7 +5958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>198</v>
       </c>
@@ -5670,7 +5993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>202</v>
       </c>
@@ -5705,7 +6028,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>205</v>
       </c>
@@ -5740,7 +6063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>208</v>
       </c>
@@ -5775,7 +6098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>211</v>
       </c>
@@ -5810,7 +6133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>214</v>
       </c>
@@ -5845,7 +6168,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>217</v>
       </c>
@@ -5880,7 +6203,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>220</v>
       </c>
@@ -5915,7 +6238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>223</v>
       </c>
@@ -5950,7 +6273,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>227</v>
       </c>
@@ -5985,7 +6308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>230</v>
       </c>
@@ -6020,7 +6343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>233</v>
       </c>
@@ -6055,7 +6378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>236</v>
       </c>
@@ -6090,7 +6413,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>239</v>
       </c>
@@ -6125,7 +6448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>242</v>
       </c>
@@ -6160,7 +6483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>246</v>
       </c>
@@ -6203,28 +6526,34 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A06624A-00EE-47AC-8E7E-F3D2C440B774}">
-  <dimension ref="A1:N39"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F2:F9"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.3046875" customWidth="1"/>
-    <col min="4" max="4" width="18.3046875" customWidth="1"/>
-    <col min="5" max="5" width="18.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.3046875" customWidth="1"/>
-    <col min="7" max="7" width="25.3046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.3046875" customWidth="1"/>
-    <col min="10" max="12" width="28.3046875" customWidth="1"/>
-    <col min="13" max="14" width="16.3046875" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -6232,1435 +6561,1603 @@
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" t="s">
+        <v>497</v>
+      </c>
+      <c r="H2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2" t="s">
+        <v>329</v>
+      </c>
+      <c r="J2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="str" cm="1">
+        <f t="array" ref="T3:T12">_xlfn.UNIQUE(O3:O39)</f>
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H4" t="s">
+        <v>399</v>
+      </c>
+      <c r="I4" t="s">
+        <v>400</v>
+      </c>
+      <c r="J4" t="s">
+        <v>430</v>
+      </c>
+      <c r="K4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" t="s">
+        <v>497</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" t="str">
+        <v>DAC</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="P6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>159</v>
+      </c>
+      <c r="T6" t="str">
+        <v>Battery storage</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="H7" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="L7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" t="str">
+        <v>Electrolyzers</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" t="s">
+        <v>497</v>
+      </c>
+      <c r="H8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I8" t="s">
+        <v>328</v>
+      </c>
+      <c r="J8" t="s">
+        <v>328</v>
+      </c>
+      <c r="K8" t="s">
+        <v>328</v>
+      </c>
+      <c r="L8" t="s">
+        <v>328</v>
+      </c>
+      <c r="P8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>39</v>
+      </c>
+      <c r="T8" t="str">
+        <v>Other RES</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="T9" t="str">
+        <v>Natural gas</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" t="str">
+        <v>Nuclear</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" t="str">
+        <v>Wind</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="T12" t="str">
+        <v>PV</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" t="s">
+        <v>332</v>
+      </c>
+      <c r="D13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" t="s">
+        <v>345</v>
+      </c>
+      <c r="I13" t="s">
+        <v>332</v>
+      </c>
+      <c r="J13" t="s">
+        <v>332</v>
+      </c>
+      <c r="K13" t="s">
+        <v>332</v>
+      </c>
+      <c r="L13" t="s">
+        <v>332</v>
+      </c>
+      <c r="P13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D14" t="s">
+        <v>416</v>
+      </c>
+      <c r="E14" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" t="s">
+        <v>497</v>
+      </c>
+      <c r="H14" t="s">
+        <v>343</v>
+      </c>
+      <c r="I14" t="s">
+        <v>330</v>
+      </c>
+      <c r="J14" t="s">
+        <v>330</v>
+      </c>
+      <c r="K14" t="s">
+        <v>330</v>
+      </c>
+      <c r="L14" t="s">
+        <v>330</v>
+      </c>
+      <c r="P14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="H15" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L15" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="M10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="M11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="M12" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="M13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="M14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="M15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="H16" t="s">
-        <v>372</v>
-      </c>
-      <c r="I16" t="s">
-        <v>405</v>
-      </c>
-      <c r="J16" t="s">
-        <v>423</v>
+      <c r="H16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="M16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="M16" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H17" t="s">
-        <v>373</v>
-      </c>
-      <c r="I17" t="s">
-        <v>406</v>
-      </c>
-      <c r="J17" t="s">
-        <v>424</v>
+      <c r="H17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="M17" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="M17" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="P17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D18" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="M18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" t="s">
+        <v>496</v>
+      </c>
+      <c r="H18" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" t="s">
+        <v>383</v>
+      </c>
+      <c r="J18" t="s">
+        <v>383</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" t="s">
+        <v>497</v>
+      </c>
+      <c r="P18" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H19" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" t="s">
+        <v>377</v>
+      </c>
+      <c r="J19" t="s">
+        <v>377</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" t="s">
+        <v>497</v>
+      </c>
+      <c r="P19" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="M19" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="H20" t="s">
+        <v>337</v>
+      </c>
+      <c r="I20" t="s">
+        <v>355</v>
+      </c>
+      <c r="J20" t="s">
+        <v>355</v>
+      </c>
+      <c r="K20" t="s">
+        <v>426</v>
+      </c>
+      <c r="L20" t="s">
+        <v>426</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" t="s">
+        <v>497</v>
+      </c>
+      <c r="P20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H21" t="s">
+        <v>338</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="P21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="H22" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" t="s">
+        <v>165</v>
+      </c>
+      <c r="J22" t="s">
+        <v>430</v>
+      </c>
+      <c r="K22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22" t="s">
+        <v>497</v>
+      </c>
+      <c r="P22" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="P23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="P25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="P26" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="I27" t="s">
+        <v>373</v>
+      </c>
+      <c r="J27" t="s">
+        <v>406</v>
+      </c>
+      <c r="K27" t="s">
+        <v>424</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="M20" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="M27" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="P27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="M21" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="H29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="P29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q29" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G22" t="s">
-        <v>337</v>
-      </c>
-      <c r="H22" t="s">
-        <v>355</v>
-      </c>
-      <c r="I22" t="s">
-        <v>355</v>
-      </c>
-      <c r="J22" t="s">
-        <v>426</v>
-      </c>
-      <c r="K22" t="s">
-        <v>426</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="M22" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" t="s">
+      <c r="H31" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="I31" t="s">
+        <v>372</v>
+      </c>
+      <c r="J31" t="s">
+        <v>405</v>
+      </c>
+      <c r="K31" t="s">
+        <v>423</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="P31" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q31" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="1" t="s">
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" t="s">
+        <v>416</v>
+      </c>
+      <c r="E32" t="s">
+        <v>331</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" t="s">
+        <v>497</v>
+      </c>
+      <c r="H32" t="s">
+        <v>344</v>
+      </c>
+      <c r="I32" t="s">
+        <v>331</v>
+      </c>
+      <c r="J32" t="s">
+        <v>331</v>
+      </c>
+      <c r="K32" t="s">
+        <v>331</v>
+      </c>
+      <c r="L32" t="s">
+        <v>331</v>
+      </c>
+      <c r="P32" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E33" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G33" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G25" t="s">
-        <v>151</v>
-      </c>
-      <c r="H25" t="s">
-        <v>377</v>
-      </c>
-      <c r="I25" t="s">
-        <v>377</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="M25" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" t="s">
+      <c r="H33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="P33" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q33" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G28" t="s">
-        <v>164</v>
-      </c>
-      <c r="H28" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" t="s">
-        <v>430</v>
-      </c>
-      <c r="J28" t="s">
-        <v>158</v>
-      </c>
-      <c r="K28" t="s">
-        <v>158</v>
-      </c>
-      <c r="M28" t="s">
-        <v>38</v>
-      </c>
-      <c r="N28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G29" t="s">
-        <v>399</v>
-      </c>
-      <c r="H29" t="s">
-        <v>400</v>
-      </c>
-      <c r="I29" t="s">
-        <v>430</v>
-      </c>
-      <c r="J29" t="s">
-        <v>158</v>
-      </c>
-      <c r="K29" t="s">
-        <v>158</v>
-      </c>
-      <c r="M29" t="s">
-        <v>38</v>
-      </c>
-      <c r="N29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G30" t="s">
-        <v>166</v>
-      </c>
-      <c r="H30" t="s">
-        <v>383</v>
-      </c>
-      <c r="I30" t="s">
-        <v>383</v>
-      </c>
-      <c r="J30" t="s">
-        <v>158</v>
-      </c>
-      <c r="K30" t="s">
-        <v>158</v>
-      </c>
-      <c r="M30" t="s">
-        <v>38</v>
-      </c>
-      <c r="N30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G32" t="s">
-        <v>338</v>
-      </c>
-      <c r="H32" t="s">
-        <v>173</v>
-      </c>
-      <c r="I32" t="s">
-        <v>173</v>
-      </c>
-      <c r="J32" t="s">
-        <v>173</v>
-      </c>
-      <c r="K32" t="s">
-        <v>173</v>
-      </c>
-      <c r="M32" t="s">
-        <v>39</v>
-      </c>
-      <c r="N32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="G33" t="s">
-        <v>339</v>
-      </c>
-      <c r="H33" t="s">
-        <v>327</v>
-      </c>
-      <c r="I33" t="s">
-        <v>327</v>
-      </c>
-      <c r="J33" t="s">
-        <v>327</v>
-      </c>
-      <c r="K33" t="s">
-        <v>327</v>
-      </c>
-      <c r="M33" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>340</v>
-      </c>
-      <c r="H34" t="s">
-        <v>120</v>
       </c>
       <c r="I34" t="s">
         <v>120</v>
@@ -7671,217 +8168,260 @@
       <c r="K34" t="s">
         <v>120</v>
       </c>
-      <c r="M34" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C35" t="s">
-        <v>416</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="L34" t="s">
+        <v>120</v>
+      </c>
+      <c r="P34" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G36" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H36" t="s">
+        <v>339</v>
+      </c>
+      <c r="I36" t="s">
+        <v>327</v>
+      </c>
+      <c r="J36" t="s">
+        <v>327</v>
+      </c>
+      <c r="K36" t="s">
+        <v>327</v>
+      </c>
+      <c r="L36" t="s">
+        <v>327</v>
+      </c>
+      <c r="P36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="G35" t="s">
-        <v>341</v>
-      </c>
-      <c r="H35" t="s">
-        <v>328</v>
-      </c>
-      <c r="I35" t="s">
-        <v>328</v>
-      </c>
-      <c r="J35" t="s">
-        <v>328</v>
-      </c>
-      <c r="K35" t="s">
-        <v>328</v>
-      </c>
-      <c r="M35" t="s">
-        <v>39</v>
-      </c>
-      <c r="N35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C36" t="s">
-        <v>416</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F36" t="s">
-        <v>497</v>
-      </c>
-      <c r="G36" t="s">
-        <v>342</v>
-      </c>
-      <c r="H36" t="s">
-        <v>329</v>
-      </c>
-      <c r="I36" t="s">
-        <v>329</v>
-      </c>
-      <c r="J36" t="s">
-        <v>329</v>
-      </c>
-      <c r="K36" t="s">
-        <v>329</v>
-      </c>
-      <c r="M36" t="s">
-        <v>39</v>
-      </c>
-      <c r="N36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>323</v>
-      </c>
-      <c r="B37" t="s">
-        <v>330</v>
-      </c>
-      <c r="C37" t="s">
-        <v>416</v>
-      </c>
-      <c r="D37" t="s">
-        <v>330</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F37" t="s">
-        <v>497</v>
-      </c>
-      <c r="G37" t="s">
-        <v>343</v>
-      </c>
-      <c r="H37" t="s">
-        <v>330</v>
-      </c>
-      <c r="I37" t="s">
-        <v>330</v>
-      </c>
-      <c r="J37" t="s">
-        <v>330</v>
-      </c>
-      <c r="K37" t="s">
-        <v>330</v>
-      </c>
-      <c r="M37" t="s">
-        <v>39</v>
-      </c>
-      <c r="N37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>324</v>
-      </c>
-      <c r="B38" t="s">
-        <v>331</v>
-      </c>
-      <c r="C38" t="s">
-        <v>416</v>
-      </c>
-      <c r="D38" t="s">
-        <v>331</v>
+      <c r="P37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q37" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F38" t="s">
-        <v>497</v>
-      </c>
-      <c r="G38" t="s">
-        <v>344</v>
-      </c>
-      <c r="H38" t="s">
-        <v>331</v>
-      </c>
-      <c r="I38" t="s">
-        <v>331</v>
-      </c>
-      <c r="J38" t="s">
-        <v>331</v>
-      </c>
-      <c r="K38" t="s">
-        <v>331</v>
-      </c>
-      <c r="M38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>325</v>
-      </c>
-      <c r="B39" t="s">
-        <v>332</v>
-      </c>
-      <c r="C39" t="s">
-        <v>332</v>
-      </c>
-      <c r="D39" t="s">
-        <v>332</v>
+        <v>250</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="P38" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>412</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39" t="s">
-        <v>345</v>
-      </c>
-      <c r="H39" t="s">
-        <v>332</v>
-      </c>
-      <c r="I39" t="s">
-        <v>332</v>
-      </c>
-      <c r="J39" t="s">
-        <v>332</v>
-      </c>
-      <c r="K39" t="s">
-        <v>332</v>
-      </c>
-      <c r="M39" t="s">
-        <v>39</v>
-      </c>
-      <c r="N39" t="s">
-        <v>39</v>
+        <v>250</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="P39" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N21" xr:uid="{2A06624A-00EE-47AC-8E7E-F3D2C440B774}"/>
+  <autoFilter ref="A1:Q39" xr:uid="{2A06624A-00EE-47AC-8E7E-F3D2C440B774}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="production"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q39">
+      <sortCondition ref="I1:I21"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7898,16 +8438,16 @@
       <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="24.3046875" customWidth="1"/>
-    <col min="8" max="8" width="18.3046875" customWidth="1"/>
-    <col min="9" max="9" width="21.69140625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="24.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>251</v>
       </c>
@@ -7936,7 +8476,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>259</v>
       </c>
@@ -7965,7 +8505,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>264</v>
       </c>
@@ -7994,7 +8534,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>266</v>
       </c>
@@ -8023,7 +8563,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>268</v>
       </c>
@@ -8052,7 +8592,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>270</v>
       </c>
@@ -8081,7 +8621,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>272</v>
       </c>
@@ -8110,7 +8650,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>357</v>
       </c>
@@ -8139,7 +8679,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>384</v>
       </c>
@@ -8168,7 +8708,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>366</v>
       </c>
@@ -8197,7 +8737,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>386</v>
       </c>
@@ -8226,7 +8766,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>387</v>
       </c>
@@ -8255,7 +8795,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>401</v>
       </c>
@@ -8281,7 +8821,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>275</v>
       </c>
@@ -8307,7 +8847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>277</v>
       </c>
@@ -8333,7 +8873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>279</v>
       </c>
@@ -8359,7 +8899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>358</v>
       </c>
@@ -8385,7 +8925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>359</v>
       </c>
@@ -8411,7 +8951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>280</v>
       </c>
@@ -8437,7 +8977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>282</v>
       </c>
@@ -8463,7 +9003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>285</v>
       </c>
@@ -8489,7 +9029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>286</v>
       </c>
@@ -8515,7 +9055,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>288</v>
       </c>
@@ -8541,7 +9081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>291</v>
       </c>
@@ -8567,7 +9107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>293</v>
       </c>
@@ -8593,7 +9133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>297</v>
       </c>
@@ -8628,19 +9168,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EAE201-05D1-4990-84DE-5F5E56A0DDFC}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.3828125" customWidth="1"/>
-    <col min="3" max="3" width="14.3046875" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>300</v>
       </c>
@@ -8650,8 +9191,11 @@
       <c r="C1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>303</v>
       </c>
@@ -8661,8 +9205,11 @@
       <c r="C2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>306</v>
       </c>
@@ -8672,8 +9219,11 @@
       <c r="C3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>309</v>
       </c>
@@ -8683,8 +9233,11 @@
       <c r="C4" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>403</v>
       </c>
@@ -8694,8 +9247,11 @@
       <c r="C5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>311</v>
       </c>
@@ -8705,8 +9261,11 @@
       <c r="C6" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>297</v>
       </c>
@@ -8716,8 +9275,11 @@
       <c r="C7" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>293</v>
       </c>
@@ -8726,6 +9288,9 @@
       </c>
       <c r="C8" t="s">
         <v>314</v>
+      </c>
+      <c r="D8" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
